--- a/test/target/test-classes/Test.xlsx
+++ b/test/target/test-classes/Test.xlsx
@@ -1,21 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fnobl\eclipse-workspace\test\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115DA9A5-EC1B-4019-AEBB-AE28512C803E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Test" r:id="rId3" sheetId="1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -31,7 +23,7 @@
     <t>Forgotten password?</t>
   </si>
   <si>
-    <t>https://www.facebook.com/recover/initiate/?privacy_mutation_token=eyJ0eXBlIjowLCJjcmVhdGlvbl90aW1lIjoxNzM4NjUxNDc0LCJjYWxsc2l0ZV9pZCI6MzgxMjI5MDc5NTc1OTQ2fQ%3D%3D&amp;ars=facebook_login&amp;next</t>
+    <t>https://www.facebook.com/recover/initiate/?privacy_mutation_token=eyJ0eXBlIjowLCJjcmVhdGlvbl90aW1lIjoxNzM4OTE4OTQ4LCJjYWxsc2l0ZV9pZCI6MzgxMjI5MDc5NTc1OTQ2fQ%3D%3D&amp;ars=facebook_login&amp;next</t>
   </si>
   <si>
     <t>Create new account</t>
@@ -187,7 +179,7 @@
     <t>Instagram</t>
   </si>
   <si>
-    <t>https://l.facebook.com/l.php?u=https%3A%2F%2Fwww.instagram.com%2F&amp;h=AT3DrDfcPIFdnEh9dX86fkd9-MRbVt8YHv6udHVIWk1iOpdO60ZocJIsWY3_bfJvp8yjqUe_DN8kYS8oNotPKyg4TI5hKwBWat8g6IypOjXmJPJ6_7N8Nzw-Ax0BR_UGgvllTZEq_T5fooaV6SCrTw</t>
+    <t>https://l.facebook.com/l.php?u=https%3A%2F%2Fwww.instagram.com%2F&amp;h=AT0Y8AxbZxnFymbckOZVPQ8gLsiGlzQ1ryyVfjgWW3T_QqwIfNuoJYeIUWua97gFIfSynOADtc1YnmuWMYSz7ZP-ft4MrxDC2T8YDuoueovrfsfBbzT5485PyIVZNjUFrzL0LvQcrGWcMUKjgODwxg</t>
   </si>
   <si>
     <t>Threads</t>
@@ -307,10 +299,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -322,7 +315,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -340,331 +333,18 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.75" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -672,7 +352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -680,7 +360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -688,7 +368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -696,7 +376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -704,7 +384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -712,7 +392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -720,7 +400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -728,7 +408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -736,7 +416,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -744,7 +424,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -752,7 +432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -760,7 +440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -768,7 +448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -776,7 +456,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -784,7 +464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -792,7 +472,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -800,7 +480,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -808,7 +488,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -816,7 +496,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -824,7 +504,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -832,7 +512,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -840,7 +520,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -848,7 +528,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -856,7 +536,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -864,7 +544,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -872,7 +552,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -880,7 +560,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -888,7 +568,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -896,7 +576,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -904,7 +584,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -912,7 +592,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -920,7 +600,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -928,7 +608,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -936,7 +616,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -944,7 +624,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -952,7 +632,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -960,7 +640,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -968,7 +648,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -976,7 +656,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -984,7 +664,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -992,7 +672,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -1000,7 +680,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -1008,7 +688,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -1016,7 +696,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -1024,7 +704,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -1032,7 +712,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -1040,7 +720,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -1049,6 +729,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>